--- a/behavioral_August2019/psychopy experiment/audio_excel_sheets/13_audio.xlsx
+++ b/behavioral_August2019/psychopy experiment/audio_excel_sheets/13_audio.xlsx
@@ -50,7 +50,7 @@
     <t>parcelated_audio/13/13_11.aiff</t>
   </si>
   <si>
-    <t>parcelated_audio/13/13_12aiff</t>
+    <t>parcelated_audio/13/13_12.aiff</t>
   </si>
   <si>
     <t>parcelated_audio/13/13_13.aiff</t>
